--- a/data/trans_dic/P19F$noche-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19F$noche-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6984828592418024</v>
+        <v>0.6942057129296846</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.649614095121504</v>
+        <v>0.6511923393329974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.703891279047725</v>
+        <v>0.7007994676236168</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8245703687243195</v>
+        <v>0.8170041325658275</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8097184399637899</v>
+        <v>0.807792988505139</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8000514653364442</v>
+        <v>0.8004085775835535</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.683018141682436</v>
+        <v>0.685806117409431</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6682916623803454</v>
+        <v>0.6634649603852483</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.697741900109152</v>
+        <v>0.6972141870763785</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8232131213549506</v>
+        <v>0.8170172567052963</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8085256129564375</v>
+        <v>0.8050150759479892</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7902600975759783</v>
+        <v>0.7961041361376645</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7329836401109634</v>
+        <v>0.7306337282568101</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.77846200707837</v>
+        <v>0.783100023333045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7550385879105932</v>
+        <v>0.7575945707144596</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8313030844415925</v>
+        <v>0.8332352147387597</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9336604382848777</v>
+        <v>0.9445709764675816</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8408819753087243</v>
+        <v>0.843788110356553</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.734070561328054</v>
+        <v>0.7344901594253472</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7690867999491146</v>
+        <v>0.767566337280998</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.760061144616641</v>
+        <v>0.7586304114763623</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8049005773789535</v>
+        <v>0.801720776273951</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8489223399254862</v>
+        <v>0.8477379708179424</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8116467642744974</v>
+        <v>0.8097446386457912</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.754066640036086</v>
+        <v>0.7519171912791396</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7953975128056364</v>
+        <v>0.792139940635175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7892624151429147</v>
+        <v>0.7868203538182689</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8367626267285811</v>
+        <v>0.8439033655453917</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8694434287986642</v>
+        <v>0.8646312082010046</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8442429374608613</v>
+        <v>0.8448687143459481</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7155651643904813</v>
+        <v>0.7208846668995411</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7825947263149864</v>
+        <v>0.7813362877338572</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7791555443444682</v>
+        <v>0.7798915186470061</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.8556152297422039</v>
+        <v>0.8504308393414817</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8528316321241621</v>
+        <v>0.8508630615717561</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.841181066101391</v>
+        <v>0.8417188491257371</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7571288782799053</v>
+        <v>0.7587910883797225</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7869456425999809</v>
+        <v>0.787659732163151</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7775180654032835</v>
+        <v>0.7790006972235117</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.798399743591983</v>
+        <v>0.796767612203558</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.826775101996116</v>
+        <v>0.8259194254345287</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8064415639042061</v>
+        <v>0.8065658789572089</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>139528</v>
+        <v>138674</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>83692</v>
+        <v>83896</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>231294</v>
+        <v>230278</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>164715</v>
+        <v>163204</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>104319</v>
+        <v>104071</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>262891</v>
+        <v>263009</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>122372</v>
+        <v>122871</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>119930</v>
+        <v>119063</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>250224</v>
+        <v>250035</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>147489</v>
+        <v>146379</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>145096</v>
+        <v>144466</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>283403</v>
+        <v>285499</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>206766</v>
+        <v>206103</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>58047</v>
+        <v>58393</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>269288</v>
+        <v>270199</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>234501</v>
+        <v>235046</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>69619</v>
+        <v>70433</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>299904</v>
+        <v>300940</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>457096</v>
+        <v>457357</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>325094</v>
+        <v>324451</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>794559</v>
+        <v>793063</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>501201</v>
+        <v>499221</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>358840</v>
+        <v>358340</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>848486</v>
+        <v>846497</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>254142</v>
+        <v>253417</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>322021</v>
+        <v>320703</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>585542</v>
+        <v>583730</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>282012</v>
+        <v>284419</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>351999</v>
+        <v>350051</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>626331</v>
+        <v>626795</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>112297</v>
+        <v>113131</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>412975</v>
+        <v>412311</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>533436</v>
+        <v>533940</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>134275</v>
+        <v>133462</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>450039</v>
+        <v>449000</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>575901</v>
+        <v>576269</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1345916</v>
+        <v>1348871</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1367802</v>
+        <v>1369043</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2733577</v>
+        <v>2738790</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1419282</v>
+        <v>1416380</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1437030</v>
+        <v>1435543</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2835265</v>
+        <v>2835703</v>
       </c>
     </row>
     <row r="32">
